--- a/src/main/resources/menBoohooSweater.xlsx
+++ b/src/main/resources/menBoohooSweater.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="136">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,70 +32,190 @@
     <t>URL</t>
   </si>
   <si>
-    <t>MEN SWEATER</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59725_cobalt_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+    <t>men_boohoo_sweater_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71154_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
     <t>Boohoo</t>
   </si>
   <si>
-    <t>OVERSIZED STRIPE FLUFFY CARDIGAN</t>
+    <t>OVERSIZED RAGLAN KNITTED WOVEN LABEL JUMPER</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-raglan-knitted-woven-label-jumper/BMM71154.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm70169_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY MOTO KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-moto-knitted-jumper/BMM70169.html?color=156</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65960_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE MUSCLE FIT COLOUR BLOCK POLO</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-muscle-fit-colour-block-polo/BMM65960.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm64245_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY 3D JACQUARD JUMPER</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-3d-jacquard-jumper/BMM64245.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74961_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE BOXY FIT REVERE CROCHET POLO IN BLUE</t>
+  </si>
+  <si>
+    <t>$46.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-crochet-polo-in-blue/BMM74961.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74594_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY DROP SHOULDER MOTO KNIT JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-drop-shoulder-moto-knit-jumper/BMM74594.html?color=165</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm80660_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY CROCHET KNIT POLO IN WHITE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-white/BMM80660.html?color=173</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74927_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED CROCHET SWEATER VEST IN ECRU</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-crochet-sweater-vest-in-ecru/BMM74927.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68576_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY FIT KNITTED MOTO SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-fit-knitted-moto-shirt/BMM68576.html?color=167</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm82595_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY LINE DRAWING KNITTED POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-line-drawing-knitted-polo/BMM82595.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm71158_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>REGULAR CREW NECK TWO TONE RIB KNITTED JUMPER</t>
   </si>
   <si>
     <t>$30.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/oversized-stripe-fluffy-cardigan/BMM59725.html?color=119</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72246_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FLUFFY CONTRAST V NECK BOXY JUMPER</t>
-  </si>
-  <si>
-    <t>$27.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/fluffy-contrast-v-neck-boxy-jumper/BMM72246.html?color=130</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74961_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE BOXY FIT REVERE CROCHET POLO IN BLUE</t>
-  </si>
-  <si>
-    <t>$46.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-crochet-polo-in-blue/BMM74961.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74958_lilac_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE BOXY FIT REVERE OPEN KNIT POLO IN LILAC</t>
+    <t>https://ca.boohoo.com/regular-crew-neck-two-tone-rib-knitted-jumper/BMM71158.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm76020_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS CORE COLOUR BLOCK SWEATER TRACKSUIT</t>
+  </si>
+  <si>
+    <t>$66.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-core-colour-block-sweater-tracksuit/BMM76020.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65956_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE MUSCLE FIT STRIPE KNIT POLO</t>
   </si>
   <si>
     <t>$36.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-open-knit-polo-in-lilac/BMM74958.html?color=137</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm82595_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY LINE DRAWING KNITTED POLO</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-line-drawing-knitted-polo/BMM82595.html</t>
+    <t>https://ca.boohoo.com/short-sleeve-muscle-fit-stripe-knit-polo/BMM65956.html?color=165</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_14</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74962_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -104,10 +224,37 @@
     <t>SHORT SLEEVE BOXY FIT REVERE OPEN KNIT POLO IN ECRU</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-open-knit-polo-in-ecru/BMM74962.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm43480_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+    <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-open-knit-polo-in-ecru/BMM74962.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm58525_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY DROP SHOULDER EYE GRAPHIC KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-drop-shoulder-eye-graphic-knitted-jumper/BMM58525.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74381_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS TEXTURED KNITTED POLO IN CHARCOAL</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-textured-knitted-polo-in-charcoal/BMM74381.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm49664_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
     <t>V NECK STRIPED KNITTED POLO</t>
@@ -116,40 +263,118 @@
     <t>$50.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/v-neck-striped-knitted-polo/BMM43480.html?color=173</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74927_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED CROCHET SWEATER VEST IN ECRU</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-crochet-sweater-vest-in-ecru/BMM74927.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz49045_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE TURTLE NECK RIB KNITTED T-SHIRT</t>
-  </si>
-  <si>
-    <t>$20.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-turtle-neck-rib-knitted-t-shirt/MZZ49045.html?color=148</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76020_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS CORE COLOUR BLOCK SWEATER TRACKSUIT</t>
-  </si>
-  <si>
-    <t>$66.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-core-colour-block-sweater-tracksuit/BMM76020.html?color=131</t>
+    <t>https://ca.boohoo.com/v-neck-striped-knitted-polo/BMM49664.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68577_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-fit-knitted-moto-shirt/BMM68577.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75278_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE COLOUR BLOCK KNITTED SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-colour-block-knitted-shirt/BMM75278.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm58824_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY KNITTED RIBBED HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-knitted-ribbed-hoodie/BMM58824.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm61582_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HOMME BRUSHED RIB KNIT VEST</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-homme-brushed-rib-knit-vest-/BMM61582.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm80656_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY CROCHET KNIT POLO IN BLACK</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-black/BMM80656.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm72243_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FLUFFY KNITTED BOXY HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/fluffy-knitted-boxy-hoodie/BMM72243.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74797_slate%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>REGULAR FIT WAFFLE KNIT JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/regular-fit-waffle-knit-jumper/BMM74797.html?color=849</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69862_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED CABLE KNITTED VEST</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-cable-knitted-vest-/BMM69862.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69872_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MUSCLE FIT ZIP THROUGH RIB KNIT JACKET</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/muscle-fit-zip-through-rib-knit-jacket/BMM69872.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_27</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68476_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -164,34 +389,142 @@
     <t>https://ca.boohoo.com/boxy-fluffy-knitted-cardigan/BMM68476.html?color=124</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69862_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED CABLE KNITTED VEST</t>
-  </si>
-  <si>
-    <t>$37.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-cable-knitted-vest-/BMM69862.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74957_hot%20pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE BOXY FIT REVERE OPEN KNIT POLO IN PINK</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-open-knit-polo-in-pink/BMM74957.html?color=535</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74594_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY DROP SHOULDER MOTO KNIT JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-drop-shoulder-moto-knit-jumper/BMM74594.html?color=165</t>
+    <t>men_boohoo_sweater_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65954_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE REVERE COLOURBLOCK KNITTED POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-revere-colourblock-knitted-polo/BMM65954.html?color=679</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69826_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY LONG SLEEVE COLOUR BLOCK KNITTED MOTO POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-long-sleeve-colour-block-knitted-moto-polo/BMM69826.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74951_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE BOXY FIT REVERE OPEN KNIT POLO IN ECRU</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-boxy-fit-revere-open-knit-polo-in-ecru/BMM74951.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm67763_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL LONG SLEEVED OVERSIZED CONTRAST COLLAR KNITTED POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-long-sleeved-oversized-contrast-collar-knitted-polo/BMM67763.html?color=167</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz31866_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>REINDEER SANTA HAT CHRISTMAS SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/reindeer-santa-hat-christmas-jumper/MZZ31866.html?color=265</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz34362_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>I'M THE GIFT KNITTED CHRISTMAS SWEATER</t>
+  </si>
+  <si>
+    <t>$22.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/im-the-gift-knitted-christmas-jumper/MZZ34362.html?color=157</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_34</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74952_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY CROCHET DROPPED SHOULDER V NECK POLO IN ECRU</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-crochet-dropped-shoulder-v-neck-polo-in-ecru/BMM74952.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_35</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65957_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE REGULAR FIT COLOUR BLOCK POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-regular-fit-colour-block-polo/BMM65957.html?color=135</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_36</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74587_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY MOTO GRAPHIC JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-moto-graphic-jumper/BMM74587.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_37</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74592_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED 3D JACQUARD KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-3d-jacquard-knitted-jumper/BMM74592.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_38</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz34360_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MERRY CHRISTMAS FAIR ISLE SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/merry-christmas-fair-isle-jumper/MZZ34360.html?color=130</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_39</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm75942_lilac_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -206,79 +539,7 @@
     <t>https://ca.boohoo.com/boxy-fluffy-striped-knitted-cardigan-in-lilac/BMM75942.html?color=137</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz31866_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>REINDEER SANTA HAT CHRISTMAS SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/reindeer-santa-hat-christmas-jumper/MZZ31866.html?color=265</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz34362_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>I'M THE GIFT KNITTED CHRISTMAS SWEATER</t>
-  </si>
-  <si>
-    <t>$22.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/im-the-gift-knitted-christmas-jumper/MZZ34362.html?color=157</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm49664_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/v-neck-striped-knitted-polo/BMM49664.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz34360_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MERRY CHRISTMAS FAIR ISLE SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/merry-christmas-fair-isle-jumper/MZZ34360.html?color=130</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm77202_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BRUSHED RIB OTTOMAN OVERSIZED BOXY SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-brushed-rib-ottoman-oversized-boxy-sweater/BMM77202.html?color=265</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71158_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>REGULAR CREW NECK TWO TONE RIB KNITTED JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/regular-crew-neck-two-tone-rib-knitted-jumper/BMM71158.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71154_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED RAGLAN KNITTED WOVEN LABEL JUMPER</t>
-  </si>
-  <si>
-    <t>$15.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-raglan-knitted-woven-label-jumper/BMM71154.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72243_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FLUFFY KNITTED BOXY HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/fluffy-knitted-boxy-hoodie/BMM72243.html?color=186</t>
+    <t>men_boohoo_sweater_40</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/mzz31859_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -288,138 +549,6 @@
   </si>
   <si>
     <t>https://ca.boohoo.com/muscle-fit-reindeer-fair-isle-christmas-jumper/MZZ31859.html?color=148</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz31858_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/muscle-fit-reindeer-fair-isle-christmas-jumper/MZZ31858.html?color=157</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80663_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY CROCHET KNIT POLO IN BLACK</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-black/BMM80663.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68577_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY FIT KNITTED MOTO SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-fit-knitted-moto-shirt/BMM68577.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74951_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE BOXY FIT REVERE OPEN KNIT POLO IN ECRU</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-boxy-fit-revere-open-knit-polo-in-ecru/BMM74951.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71809_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY KNITTED HOODIE WITH GOTHIC FONT GRAPHIC</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-knitted-hoodie-with-gothic-font-graphic/BMM71809.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm67700_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED FLUFFY KNITTED OFFICIAL STRIPE JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-fluffy-knitted-official-stripe-jumper/BMM67700.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm70169_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY MOTO KNITTED JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-moto-knitted-jumper/BMM70169.html?color=156</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm73658_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MUSCLE ROLL NECK JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/muscle-roll-neck-jumper/BMM73658.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69872_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MUSCLE FIT ZIP THROUGH RIB KNIT JACKET</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/muscle-fit-zip-through-rib-knit-jacket/BMM69872.html?color=186</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71156_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED CREW NECK TWO TONE RIB KNITTED JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-crew-neck-two-tone-rib-knitted-jumper/BMM71156.html?color=186</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74606_mustard_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY DROP SHOULDER BRANDED HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-drop-shoulder-branded-hoodie/BMM74606.html?color=146</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80660_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY CROCHET KNIT POLO IN WHITE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-white/BMM80660.html?color=173</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74587_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY MOTO GRAPHIC JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-moto-graphic-jumper/BMM74587.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74577_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY DROP SHOULDER ABSTRACT JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-drop-shoulder-abstract-jumper/BMM74577.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65953_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE REVERE COLOURBLOCK KNITTED POLO</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-revere-colourblock-knitted-polo/BMM65953.html?color=165</t>
   </si>
 </sst>
 </file>
@@ -464,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -512,762 +641,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>120</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>132</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>135</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menBoohooSweater.xlsx
+++ b/src/main/resources/menBoohooSweater.xlsx
@@ -161,63 +161,123 @@
     <t>men_boohoo_sweater_10</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm82595_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY LINE DRAWING KNITTED POLO</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-line-drawing-knitted-polo/BMM82595.html</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm71158_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>REGULAR CREW NECK TWO TONE RIB KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/regular-crew-neck-two-tone-rib-knitted-jumper/BMM71158.html?color=115</t>
   </si>
   <si>
     <t>men_boohoo_sweater_11</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm71158_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>REGULAR CREW NECK TWO TONE RIB KNITTED JUMPER</t>
-  </si>
-  <si>
-    <t>$30.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/regular-crew-neck-two-tone-rib-knitted-jumper/BMM71158.html?color=115</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm76020_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS CORE COLOUR BLOCK SWEATER TRACKSUIT</t>
+  </si>
+  <si>
+    <t>$66.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-core-colour-block-sweater-tracksuit/BMM76020.html?color=131</t>
   </si>
   <si>
     <t>men_boohoo_sweater_12</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76020_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS CORE COLOUR BLOCK SWEATER TRACKSUIT</t>
-  </si>
-  <si>
-    <t>$66.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-core-colour-block-sweater-tracksuit/BMM76020.html?color=131</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm65956_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE MUSCLE FIT STRIPE KNIT POLO</t>
+  </si>
+  <si>
+    <t>$36.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-muscle-fit-stripe-knit-polo/BMM65956.html?color=165</t>
   </si>
   <si>
     <t>men_boohoo_sweater_13</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65956_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE MUSCLE FIT STRIPE KNIT POLO</t>
-  </si>
-  <si>
-    <t>$36.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-muscle-fit-stripe-knit-polo/BMM65956.html?color=165</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm58525_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY DROP SHOULDER EYE GRAPHIC KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-drop-shoulder-eye-graphic-knitted-jumper/BMM58525.html</t>
   </si>
   <si>
     <t>men_boohoo_sweater_14</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74381_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS TEXTURED KNITTED POLO IN CHARCOAL</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-textured-knitted-polo-in-charcoal/BMM74381.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm49664_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>V NECK STRIPED KNITTED POLO</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/v-neck-striped-knitted-polo/BMM49664.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68577_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-fit-knitted-moto-shirt/BMM68577.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75278_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE COLOUR BLOCK KNITTED SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-colour-block-knitted-shirt/BMM75278.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm58824_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY KNITTED RIBBED HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-knitted-ribbed-hoodie/BMM58824.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_19</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74962_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
@@ -227,166 +287,106 @@
     <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-open-knit-polo-in-ecru/BMM74962.html</t>
   </si>
   <si>
-    <t>men_boohoo_sweater_15</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm58525_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY DROP SHOULDER EYE GRAPHIC KNITTED JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-drop-shoulder-eye-graphic-knitted-jumper/BMM58525.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_16</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74381_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS TEXTURED KNITTED POLO IN CHARCOAL</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-textured-knitted-polo-in-charcoal/BMM74381.html?color=115</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_17</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm49664_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>V NECK STRIPED KNITTED POLO</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/v-neck-striped-knitted-polo/BMM49664.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_18</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68577_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-fit-knitted-moto-shirt/BMM68577.html?color=105</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_19</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75278_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE COLOUR BLOCK KNITTED SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-colour-block-knitted-shirt/BMM75278.html?color=124</t>
-  </si>
-  <si>
     <t>men_boohoo_sweater_20</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm58824_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY KNITTED RIBBED HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-knitted-ribbed-hoodie/BMM58824.html?color=124</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm61582_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED HOMME BRUSHED RIB KNIT VEST</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-homme-brushed-rib-knit-vest-/BMM61582.html</t>
   </si>
   <si>
     <t>men_boohoo_sweater_21</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm61582_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HOMME BRUSHED RIB KNIT VEST</t>
-  </si>
-  <si>
-    <t>$37.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-homme-brushed-rib-knit-vest-/BMM61582.html</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm80656_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY CROCHET KNIT POLO IN BLACK</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-black/BMM80656.html?color=105</t>
   </si>
   <si>
     <t>men_boohoo_sweater_22</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80656_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY CROCHET KNIT POLO IN BLACK</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-black/BMM80656.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm72243_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FLUFFY KNITTED BOXY HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/fluffy-knitted-boxy-hoodie/BMM72243.html?color=186</t>
   </si>
   <si>
     <t>men_boohoo_sweater_23</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72243_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FLUFFY KNITTED BOXY HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/fluffy-knitted-boxy-hoodie/BMM72243.html?color=186</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm74797_slate%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>REGULAR FIT WAFFLE KNIT JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/regular-fit-waffle-knit-jumper/BMM74797.html?color=849</t>
   </si>
   <si>
     <t>men_boohoo_sweater_24</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74797_slate%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>REGULAR FIT WAFFLE KNIT JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/regular-fit-waffle-knit-jumper/BMM74797.html?color=849</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm69862_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED CABLE KNITTED VEST</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-cable-knitted-vest-/BMM69862.html?color=124</t>
   </si>
   <si>
     <t>men_boohoo_sweater_25</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69862_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED CABLE KNITTED VEST</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-cable-knitted-vest-/BMM69862.html?color=124</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm69872_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MUSCLE FIT ZIP THROUGH RIB KNIT JACKET</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/muscle-fit-zip-through-rib-knit-jacket/BMM69872.html?color=186</t>
   </si>
   <si>
     <t>men_boohoo_sweater_26</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69872_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MUSCLE FIT ZIP THROUGH RIB KNIT JACKET</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/muscle-fit-zip-through-rib-knit-jacket/BMM69872.html?color=186</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm68476_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY FLUFFY KNITTED CARDIGAN</t>
+  </si>
+  <si>
+    <t>$60.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-fluffy-knitted-cardigan/BMM68476.html?color=124</t>
   </si>
   <si>
     <t>men_boohoo_sweater_27</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68476_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY FLUFFY KNITTED CARDIGAN</t>
-  </si>
-  <si>
-    <t>$60.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-fluffy-knitted-cardigan/BMM68476.html?color=124</t>
+    <t>https://media.boohoo.com/i/boohoo/bmm59722_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED CREW NECK FLUFFY KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-crew-neck-fluffy-knitted-jumper/BMM59722.html?color=124</t>
   </si>
   <si>
     <t>men_boohoo_sweater_28</t>
@@ -813,67 +813,67 @@
         <v>50</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>66</v>
@@ -913,27 +913,27 @@
         <v>73</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>78</v>
@@ -953,27 +953,27 @@
         <v>81</v>
       </c>
       <c r="E18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>82</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="C19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C19" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>46</v>
-      </c>
       <c r="E19" t="s" s="0">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>86</v>
@@ -1013,27 +1013,27 @@
         <v>93</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s" s="0">
         <v>99</v>
@@ -1053,7 +1053,7 @@
         <v>102</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>103</v>
@@ -1073,7 +1073,7 @@
         <v>106</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>107</v>
@@ -1093,7 +1093,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s" s="0">
         <v>111</v>
@@ -1113,7 +1113,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>115</v>
@@ -1133,27 +1133,27 @@
         <v>118</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>124</v>
@@ -1233,7 +1233,7 @@
         <v>139</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>140</v>
@@ -1353,7 +1353,7 @@
         <v>164</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>165</v>
@@ -1373,7 +1373,7 @@
         <v>168</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>169</v>

--- a/src/main/resources/menBoohooSweater.xlsx
+++ b/src/main/resources/menBoohooSweater.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>Id</t>
   </si>
@@ -35,12 +35,57 @@
     <t>men_boohoo_sweater_1</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm70169_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>BOXY MOTO KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-moto-knitted-jumper/BMM70169.html?color=156</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65960_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE MUSCLE FIT COLOUR BLOCK POLO</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-muscle-fit-colour-block-polo/BMM65960.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm64245_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY 3D JACQUARD JUMPER</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-3d-jacquard-jumper/BMM64245.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_4</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71154_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>OVERSIZED RAGLAN KNITTED WOVEN LABEL JUMPER</t>
   </si>
   <si>
@@ -50,51 +95,6 @@
     <t>https://ca.boohoo.com/oversized-raglan-knitted-woven-label-jumper/BMM71154.html?color=124</t>
   </si>
   <si>
-    <t>men_boohoo_sweater_2</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm70169_purple_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY MOTO KNITTED JUMPER</t>
-  </si>
-  <si>
-    <t>$27.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-moto-knitted-jumper/BMM70169.html?color=156</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_3</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65960_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE MUSCLE FIT COLOUR BLOCK POLO</t>
-  </si>
-  <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-muscle-fit-colour-block-polo/BMM65960.html?color=209</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_4</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm64245_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY 3D JACQUARD JUMPER</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-3d-jacquard-jumper/BMM64245.html</t>
-  </si>
-  <si>
     <t>men_boohoo_sweater_5</t>
   </si>
   <si>
@@ -113,6 +113,30 @@
     <t>men_boohoo_sweater_6</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm81650_blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY DROP SHOULDER OPEN KNIT JUMPER IN BLUE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-drop-shoulder-open-knit-jumper-in-blue/BMM81650.html?color=106</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74927_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED CROCHET SWEATER VEST IN ECRU</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-crochet-sweater-vest-in-ecru/BMM74927.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_8</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74594_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
@@ -122,7 +146,46 @@
     <t>https://ca.boohoo.com/oversized-boxy-drop-shoulder-moto-knit-jumper/BMM74594.html?color=165</t>
   </si>
   <si>
-    <t>men_boohoo_sweater_7</t>
+    <t>men_boohoo_sweater_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm58824_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY KNITTED RIBBED HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-knitted-ribbed-hoodie/BMM58824.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm73724_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS OVERSIZED KNITTED LINE DRAWING DROP SHOULDER JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-oversized-knitted-line-drawing-drop-shoulder-jumper/BMM73724.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm76020_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS CORE COLOUR BLOCK SWEATER TRACKSUIT</t>
+  </si>
+  <si>
+    <t>$66.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-core-colour-block-sweater-tracksuit/BMM76020.html?color=131</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_12</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm80660_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -131,22 +194,37 @@
     <t>OVERSIZED BOXY CROCHET KNIT POLO IN WHITE</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-white/BMM80660.html?color=173</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_8</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74927_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED CROCHET SWEATER VEST IN ECRU</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-crochet-sweater-vest-in-ecru/BMM74927.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_9</t>
+    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-white/BMM80660.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75278_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVE COLOUR BLOCK KNITTED SHIRT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeve-colour-block-knitted-shirt/BMM75278.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65956_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE MUSCLE FIT STRIPE KNIT POLO</t>
+  </si>
+  <si>
+    <t>$36.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-muscle-fit-stripe-knit-polo/BMM65956.html?color=165</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_15</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm68576_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -158,7 +236,7 @@
     <t>https://ca.boohoo.com/boxy-fit-knitted-moto-shirt/BMM68576.html?color=167</t>
   </si>
   <si>
-    <t>men_boohoo_sweater_10</t>
+    <t>men_boohoo_sweater_16</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm71158_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -173,37 +251,31 @@
     <t>https://ca.boohoo.com/regular-crew-neck-two-tone-rib-knitted-jumper/BMM71158.html?color=115</t>
   </si>
   <si>
-    <t>men_boohoo_sweater_11</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm76020_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS CORE COLOUR BLOCK SWEATER TRACKSUIT</t>
-  </si>
-  <si>
-    <t>$66.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-core-colour-block-sweater-tracksuit/BMM76020.html?color=131</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_12</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65956_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE MUSCLE FIT STRIPE KNIT POLO</t>
-  </si>
-  <si>
-    <t>$36.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-muscle-fit-stripe-knit-polo/BMM65956.html?color=165</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_13</t>
+    <t>men_boohoo_sweater_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm72243_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>FLUFFY KNITTED BOXY HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/fluffy-knitted-boxy-hoodie/BMM72243.html?color=186</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm61518_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL OVERSIZED PLEATED COLOUR BLOCK JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-oversized-pleated-colour-block-jumper/BMM61518.html?color=135</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_19</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm58525_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -215,7 +287,244 @@
     <t>https://ca.boohoo.com/boxy-drop-shoulder-eye-graphic-knitted-jumper/BMM58525.html</t>
   </si>
   <si>
-    <t>men_boohoo_sweater_14</t>
+    <t>men_boohoo_sweater_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm73726_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-oversized-knitted-line-drawing-drop-shoulder-jumper/BMM73726.html?color=115</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm68577_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-fit-knitted-moto-shirt/BMM68577.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm49664_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>V NECK STRIPED KNITTED POLO</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/v-neck-striped-knitted-polo/BMM49664.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74962_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE BOXY FIT REVERE OPEN KNIT POLO IN ECRU</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-open-knit-polo-in-ecru/BMM74962.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm66528_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>EXTENDED NECK MONOGRAM KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/extended-neck-monogram-knitted-jumper/BMM66528.html</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm31059_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED GRAPHIC HALF SLEEVE SWEATER TRACKSUIT</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-graphic-half-sleeve-sweater-tracksuit/BMM31059.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm80663_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED BOXY CROCHET KNIT POLO IN BLACK</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-black/BMM80663.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm75942_lilac_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY FLUFFY STRIPED KNITTED CARDIGAN IN LILAC</t>
+  </si>
+  <si>
+    <t>$47.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-fluffy-striped-knitted-cardigan-in-lilac/BMM75942.html?color=137</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65954_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE REVERE COLOURBLOCK KNITTED POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-revere-colourblock-knitted-polo/BMM65954.html?color=679</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69862_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RELAXED CABLE KNITTED VEST</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/relaxed-cable-knitted-vest-/BMM69862.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm60911_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LONG SLEEVED OVERSIZED CONTRAST COLLAR KNITTED POLO</t>
+  </si>
+  <si>
+    <t>$53.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/long-sleeved-oversized-contrast-collar-knitted-polo/BMM60911.html?color=105</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74605_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED DROP SHOULDER LINE DRAWING HOODIE</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-drop-shoulder-line-drawing-hoodie/BMM74605.html?color=165</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm69826_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY LONG SLEEVE COLOUR BLOCK KNITTED MOTO POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-long-sleeve-colour-block-knitted-moto-polo/BMM69826.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm67763_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL LONG SLEEVED OVERSIZED CONTRAST COLLAR KNITTED POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-long-sleeved-oversized-contrast-collar-knitted-polo/BMM67763.html?color=167</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_34</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz31866_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>REINDEER SANTA HAT CHRISTMAS SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/reindeer-santa-hat-christmas-jumper/MZZ31866.html?color=265</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_35</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/mzz34362_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>I'M THE GIFT KNITTED CHRISTMAS SWEATER</t>
+  </si>
+  <si>
+    <t>$22.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/im-the-gift-knitted-christmas-jumper/MZZ34362.html?color=157</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_36</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm65957_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE REGULAR FIT COLOUR BLOCK POLO</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/short-sleeve-regular-fit-colour-block-polo/BMM65957.html?color=135</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_37</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74592_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED 3D JACQUARD KNITTED JUMPER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/oversized-3d-jacquard-knitted-jumper/BMM74592.html?color=209</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_38</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/bmm74952_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BOXY CROCHET DROPPED SHOULDER V NECK POLO IN ECRU</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/boxy-crochet-dropped-shoulder-v-neck-polo-in-ecru/BMM74952.html?color=124</t>
+  </si>
+  <si>
+    <t>men_boohoo_sweater_39</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/bmm74381_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -227,292 +536,7 @@
     <t>https://ca.boohoo.com/plus-textured-knitted-polo-in-charcoal/BMM74381.html?color=115</t>
   </si>
   <si>
-    <t>men_boohoo_sweater_15</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm49664_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>V NECK STRIPED KNITTED POLO</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/v-neck-striped-knitted-polo/BMM49664.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_16</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68577_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-fit-knitted-moto-shirt/BMM68577.html?color=105</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_17</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75278_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE COLOUR BLOCK KNITTED SHIRT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-colour-block-knitted-shirt/BMM75278.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_18</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm58824_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY KNITTED RIBBED HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-knitted-ribbed-hoodie/BMM58824.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_19</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74962_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE BOXY FIT REVERE OPEN KNIT POLO IN ECRU</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-boxy-fit-revere-open-knit-polo-in-ecru/BMM74962.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_20</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm61582_stone_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED HOMME BRUSHED RIB KNIT VEST</t>
-  </si>
-  <si>
-    <t>$37.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-homme-brushed-rib-knit-vest-/BMM61582.html</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_21</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm80656_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY CROCHET KNIT POLO IN BLACK</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-crochet-knit-polo-in-black/BMM80656.html?color=105</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_22</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm72243_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FLUFFY KNITTED BOXY HOODIE</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/fluffy-knitted-boxy-hoodie/BMM72243.html?color=186</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_23</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74797_slate%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>REGULAR FIT WAFFLE KNIT JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/regular-fit-waffle-knit-jumper/BMM74797.html?color=849</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_24</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69862_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RELAXED CABLE KNITTED VEST</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/relaxed-cable-knitted-vest-/BMM69862.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_25</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69872_chocolate_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MUSCLE FIT ZIP THROUGH RIB KNIT JACKET</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/muscle-fit-zip-through-rib-knit-jacket/BMM69872.html?color=186</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_26</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm68476_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY FLUFFY KNITTED CARDIGAN</t>
-  </si>
-  <si>
-    <t>$60.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-fluffy-knitted-cardigan/BMM68476.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_27</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm59722_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED CREW NECK FLUFFY KNITTED JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-crew-neck-fluffy-knitted-jumper/BMM59722.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_28</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65954_dusty%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE REVERE COLOURBLOCK KNITTED POLO</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-revere-colourblock-knitted-polo/BMM65954.html?color=679</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_29</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm69826_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY LONG SLEEVE COLOUR BLOCK KNITTED MOTO POLO</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-long-sleeve-colour-block-knitted-moto-polo/BMM69826.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_30</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74951_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LONG SLEEVE BOXY FIT REVERE OPEN KNIT POLO IN ECRU</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/long-sleeve-boxy-fit-revere-open-knit-polo-in-ecru/BMM74951.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_31</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm67763_taupe_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL LONG SLEEVED OVERSIZED CONTRAST COLLAR KNITTED POLO</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-long-sleeved-oversized-contrast-collar-knitted-polo/BMM67763.html?color=167</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_32</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz31866_grey%20marl_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>REINDEER SANTA HAT CHRISTMAS SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/reindeer-santa-hat-christmas-jumper/MZZ31866.html?color=265</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_33</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz34362_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>I'M THE GIFT KNITTED CHRISTMAS SWEATER</t>
-  </si>
-  <si>
-    <t>$22.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/im-the-gift-knitted-christmas-jumper/MZZ34362.html?color=157</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_34</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74952_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY CROCHET DROPPED SHOULDER V NECK POLO IN ECRU</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-crochet-dropped-shoulder-v-neck-polo-in-ecru/BMM74952.html?color=124</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_35</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm65957_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SHORT SLEEVE REGULAR FIT COLOUR BLOCK POLO</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/short-sleeve-regular-fit-colour-block-polo/BMM65957.html?color=135</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_36</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74587_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED BOXY MOTO GRAPHIC JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-boxy-moto-graphic-jumper/BMM74587.html?color=105</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_37</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm74592_sage_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED 3D JACQUARD KNITTED JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/oversized-3d-jacquard-knitted-jumper/BMM74592.html?color=209</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_38</t>
+    <t>men_boohoo_sweater_40</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/mzz34360_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -522,33 +546,6 @@
   </si>
   <si>
     <t>https://ca.boohoo.com/merry-christmas-fair-isle-jumper/MZZ34360.html?color=130</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_39</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/bmm75942_lilac_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BOXY FLUFFY STRIPED KNITTED CARDIGAN IN LILAC</t>
-  </si>
-  <si>
-    <t>$47.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/boxy-fluffy-striped-knitted-cardigan-in-lilac/BMM75942.html?color=137</t>
-  </si>
-  <si>
-    <t>men_boohoo_sweater_40</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/mzz31859_navy_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MUSCLE FIT REINDEER FAIR ISLE CHRISTMAS SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/muscle-fit-reindeer-fair-isle-christmas-jumper/MZZ31859.html?color=148</t>
   </si>
 </sst>
 </file>
@@ -733,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>35</v>
@@ -753,7 +750,7 @@
         <v>38</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>39</v>
@@ -773,7 +770,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>43</v>
@@ -793,7 +790,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>47</v>
@@ -813,127 +810,127 @@
         <v>50</v>
       </c>
       <c r="E11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="C12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="F12" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="E13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="E14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>64</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="E15" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="F15" t="s" s="0">
         <v>69</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="C16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="E16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>73</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="E17" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>61</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>78</v>
@@ -953,7 +950,7 @@
         <v>81</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>82</v>
@@ -973,7 +970,7 @@
         <v>85</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>86</v>
@@ -1010,210 +1007,210 @@
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="F23" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="E24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="E25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="E26" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="E27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>117</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="F28" t="s" s="0">
         <v>122</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="E29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s" s="0">
         <v>126</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>131</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s" s="0">
+      <c r="E31" t="s" s="0">
         <v>135</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>136</v>
@@ -1233,7 +1230,7 @@
         <v>139</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>140</v>
@@ -1253,7 +1250,7 @@
         <v>143</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s" s="0">
         <v>144</v>
@@ -1273,47 +1270,47 @@
         <v>147</v>
       </c>
       <c r="E34" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>148</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>149</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C35" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s" s="0">
+      <c r="E35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s" s="0">
         <v>152</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="C36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="E36" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>157</v>
@@ -1333,7 +1330,7 @@
         <v>160</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>161</v>
@@ -1353,7 +1350,7 @@
         <v>164</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>165</v>
@@ -1373,7 +1370,7 @@
         <v>168</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>169</v>
@@ -1393,30 +1390,30 @@
         <v>172</v>
       </c>
       <c r="E40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s" s="0">
         <v>173</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>174</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="C41" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C41" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s" s="0">
+      <c r="E41" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s" s="0">
         <v>177</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
